--- a/SPPSApi/Doc/Template/FS0314.xlsx
+++ b/SPPSApi/Doc/Template/FS0314.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPPS\SPPS_API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4D3198-8B7E-4BE5-AAEE-8AA1359EAA6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4218AFE7-C928-4DEF-ACF1-2208F487F307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>供应商代码</t>
   </si>
@@ -59,6 +59,22 @@
   </si>
   <si>
     <t>联系人3邮箱</t>
+  </si>
+  <si>
+    <t>泰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -421,15 +437,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,35 +463,48 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>